--- a/data/02_intermediate/cleaned_Mononyme_defrançais_songs.xlsx
+++ b/data/02_intermediate/cleaned_Mononyme_defrançais_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tu sais, j'suis venue aussi vite que j'ai pu J'ai eu l'message de l'hôpital sur l'répondeur et puis j'suis venue J'ai peur de respirer trop fort et d'troubler tes voyages Quand je m'approche de ton étrange visage Quand j'te porte, j'ai l'impression qu'j'vais t'aplatir Si j'te serre aussi fort que ce que ton p'tit corps m'inspire J'ai l'impression de te connaître par cur Pourtant t'es née il y a à pein quelques heurs J'peux pas y croire bientôt tu fixeras les traits Et les formes qui dessinent les visages familiers Tu nous reconnaitras tes piliers, ton clan, ton sanctuaire Tes immuables, tes protecteurs et moi la sur de ta mère Tu vas découvrir le jeu, les il était une fois Je te ferai pirate, louve, indienne ou Princesse Elsa Ce que tu veux, on exhumera les rires de ma propre enfance Baba t'apprendra à couper du bois pendant les vacances On t'emmènera au Vietnam, Léna vient de là-bas C'est loin d'ici et c'est pour ça qu'maman ressemble pas à papa Quand je serai grande, j'veux être Mononoke Quand je serai grande, j'veux être Mononoke Quand je serai grande, j'veux être Mononoke Quand je serai grande, j'veux être Mononoke You might also like J'ai hâte de t'faire écouter David Bowie et James Brown Qu'on se marre devant Princess Bride, Shaolin Soccer et IpMan De te voir vouloir t'appeler San comme dans Mononoke Te taper du Daniel Pennac pour le bac de français Tu sais évidemment que j'ai peur petite regarde-toi Tu sais t'es minuscule t'es pas plus grande qu'un chat Pourtant j'ai l'impression que tu peux me broyer d'un geste Je sens mon cur qui s'écrase quand tu serres mon index Tu sais, t'es magnifique, laisse personne te dire l'inverse Surtout les garçons à l'école ou ton prof d'EPS La cour de récré une arène, du lundi au samedi À esquiver les premiers coups indélébiles du regard d'autrui Ça continuera dans les magazines, à table ou sur les réseaux Ton corps passé au crible, on te fait croire qu'il n'est pas comme il faut Mais c'est faux, t'es belle ça veut pas dire ce qu'ils te disent T'es belle, c'est en toi quand t'es la personne que tu vises T'es belle, et ne t'en excuses jamais Ne dis ni pardon ni merci mais dis-leur simplement je sais Quand je serai grande, j'veux être Mononoke Quand je serai grande, j'veux être Mononoke Quand je serai grande, j'veux être Mononoke Quand je serai grande, j'veux être Mononoke Tu sais, j'ai tant à te dire et j'ai pas beaucoup de temps Une vie déjà un peu entamée, j'ai peur d'oublier l'plus important Alors j'veux que tu trouves un mec bien ou une fille en or Non pardon, non j'suis con, j'veux qu'tu te trouves toi d'abord Que t'aies jamais peur de prendre un rencard avec toi-même De rire à tes propres blagues et te payer tes propres verres Seule c'est pas un défaut, pas un fléau Faut rien attendre, faut apprendre à prendre le temps qu'il faut Et pas oublier tous les profs qui s'ignorent Les alter egos, les boussoles sud, les mentors La famille que tu choisis, la famille qui t'adopte Tu verras ça c'est cool, ça s'appelle les meilleurs potes Tu sais j'ai tant à te dire et le temps on le prendra Moi et puis tous les autres on saura veiller sur toi Mais tu sais tu vas tout découvrir par toi-même Tu vas explorer les jours, leurs variations et leurs thèmes Tu vas expérimenter, tomber, tu vas rester au sol Pleurer à t'en cramer la gorge comme un aérosol Tu vas connaître la honte, ses regrets brûlants Tu vas rire à faire se retourner tous ceux du premier rang Confier tes peines à des dépositaires qui vont te décevoir Blesser des alliés qui te pardonneront plus tard Tu sais, on sera là pour éparpiller tes doutes À demain petite, on se retrouve sur la route</t>
+          <t>Tu sais, j'suis venue aussi vite que j'ai pu J'ai eu l'message de l'hôpital sur l'répondeur et puis j'suis venue J'ai peur de respirer trop fort et d'troubler tes voyages Quand je m'approche de ton étrange visage Quand j'te porte, j'ai l'impression qu'j'vais t'aplatir Si j'te serre aussi fort que ce que ton p'tit corps m'inspire J'ai l'impression de te connaître par cur Pourtant t'es née il y a à pein quelques heurs J'peux pas y croire bientôt tu fixeras les traits Et les formes qui dessinent les visages familiers Tu nous reconnaitras tes piliers, ton clan, ton sanctuaire Tes immuables, tes protecteurs et moi la sur de ta mère Tu vas découvrir le jeu, les il était une fois Je te ferai pirate, louve, indienne ou Princesse Elsa Ce que tu veux, on exhumera les rires de ma propre enfance Baba t'apprendra à couper du bois pendant les vacances On t'emmènera au Vietnam, Léna vient de là-bas C'est loin d'ici et c'est pour ça qu'maman ressemble pas à papa Quand je serai grande, j'veux être Mononoke Quand je serai grande, j'veux être Mononoke Quand je serai grande, j'veux être Mononoke Quand je serai grande, j'veux être Mononoke J'ai hâte de t'faire écouter David Bowie et James Brown Qu'on se marre devant Princess Bride, Shaolin Soccer et IpMan De te voir vouloir t'appeler San comme dans Mononoke Te taper du Daniel Pennac pour le bac de français Tu sais évidemment que j'ai peur petite regarde-toi Tu sais t'es minuscule t'es pas plus grande qu'un chat Pourtant j'ai l'impression que tu peux me broyer d'un geste Je sens mon cur qui s'écrase quand tu serres mon index Tu sais, t'es magnifique, laisse personne te dire l'inverse Surtout les garçons à l'école ou ton prof d'EPS La cour de récré une arène, du lundi au samedi À esquiver les premiers coups indélébiles du regard d'autrui Ça continuera dans les magazines, à table ou sur les réseaux Ton corps passé au crible, on te fait croire qu'il n'est pas comme il faut Mais c'est faux, t'es belle ça veut pas dire ce qu'ils te disent T'es belle, c'est en toi quand t'es la personne que tu vises T'es belle, et ne t'en excuses jamais Ne dis ni pardon ni merci mais dis-leur simplement je sais Quand je serai grande, j'veux être Mononoke Quand je serai grande, j'veux être Mononoke Quand je serai grande, j'veux être Mononoke Quand je serai grande, j'veux être Mononoke Tu sais, j'ai tant à te dire et j'ai pas beaucoup de temps Une vie déjà un peu entamée, j'ai peur d'oublier l'plus important Alors j'veux que tu trouves un mec bien ou une fille en or Non pardon, non j'suis con, j'veux qu'tu te trouves toi d'abord Que t'aies jamais peur de prendre un rencard avec toi-même De rire à tes propres blagues et te payer tes propres verres Seule c'est pas un défaut, pas un fléau Faut rien attendre, faut apprendre à prendre le temps qu'il faut Et pas oublier tous les profs qui s'ignorent Les alter egos, les boussoles sud, les mentors La famille que tu choisis, la famille qui t'adopte Tu verras ça c'est cool, ça s'appelle les meilleurs potes Tu sais j'ai tant à te dire et le temps on le prendra Moi et puis tous les autres on saura veiller sur toi Mais tu sais tu vas tout découvrir par toi-même Tu vas explorer les jours, leurs variations et leurs thèmes Tu vas expérimenter, tomber, tu vas rester au sol Pleurer à t'en cramer la gorge comme un aérosol Tu vas connaître la honte, ses regrets brûlants Tu vas rire à faire se retourner tous ceux du premier rang Confier tes peines à des dépositaires qui vont te décevoir Blesser des alliés qui te pardonneront plus tard Tu sais, on sera là pour éparpiller tes doutes À demain petite, on se retrouve sur la route</t>
         </is>
       </c>
     </row>
